--- a/pred_ohlcv/54_21/2019-10-11 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 LINK ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>15460.38626728662</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15479.13806728662</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15096.48076728662</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>15109.83776728662</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>14961.93236728662</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>14777.18956728662</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14788.33586728662</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14788.33586728662</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14788.33586728662</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>14160.13366728662</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>14110.13366728662</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>13853.58986728662</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>55853.58986728662</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>84830.69116016819</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>84931.09026016819</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>90692.17766016819</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>88725.08166016819</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>89075.25596016819</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>92067.18096016819</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>89027.94716016819</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>89201.2607601682</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>88945.7761601682</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>88183.12746016819</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>90797.0739601682</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>90824.95956016819</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>90694.23436016819</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>91342.34396016819</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>89113.0610601682</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>88083.08116016819</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>88048.2099601682</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>88082.4752601682</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>87359.43226016819</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>88670.7420601682</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>88759.98916016819</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>88668.86476016819</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>88980.82056016818</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>88970.01066016819</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>85397.97121047263</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>84424.41791047264</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>76038.18724228817</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>69372.51524228817</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>66676.58254228816</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>68877.4398573939</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>70139.56163125444</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>68487.55967471958</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>67317.81707471958</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>67948.57096282639</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>66337.85156282638</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>65892.72916282639</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>64156.0599628264</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>61701.6033628264</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>44216.2894628264</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>50937.1943628264</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>43335.2855628264</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>43100.6388628264</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>43295.93846282639</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>43296.93846282639</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>38620.95356282639</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>39048.52866282639</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>40286.59986282639</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>40501.88346282639</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>40208.57906282639</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>40291.51886282639</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>39372.1267628264</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>38409.74172605181</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>38409.74172605181</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>38366.6188260518</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>91573.11701636411</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>96215.52760503329</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>97821.4849470211</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>108173.1289444664</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>108619.4018438793</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>108619.4018438793</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>112129.2420882206</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>110065.3329774015</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>110474.3329774015</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>108059.8933774015</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>108175.7771774015</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>107905.3849774015</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>110378.0021774015</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>112056.4820774015</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>113301.6456774015</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>109446.5088774015</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>109954.5988774015</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>108378.8021774015</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>98042.77097740147</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>98042.77097740147</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>97919.23427740147</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>92443.03565448349</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>93032.4833544835</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>98718.27516977211</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>100987.0038555921</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>101097.1074555921</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>100967.8143555921</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>100516.3821555921</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-11 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 LINK ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>15163.57236728662</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>15081.68076728662</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14788.33586728662</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>84830.69116016819</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>84931.09026016819</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>90692.17766016819</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>88725.08166016819</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>89075.25596016819</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>92067.18096016819</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>89027.94716016819</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>88922.40346016819</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>89201.2607601682</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>88945.7761601682</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>88183.12746016819</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>90797.0739601682</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>90825.95956016819</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>90824.95956016819</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>90694.23436016819</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>91342.34396016819</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>89113.0610601682</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>88083.08116016819</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>88048.2099601682</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>88082.4752601682</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>87359.43226016819</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>88670.7420601682</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>88759.98916016819</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>88668.86476016819</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>88980.82056016818</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>88970.01066016819</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>90116.97716016819</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>85397.97121047263</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>84424.41791047264</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>76038.18724228817</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>69372.51524228817</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>66676.58254228816</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>68877.4398573939</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>70139.56163125444</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>68487.55967471958</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>67317.81707471958</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>67948.57096282639</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>66337.85156282638</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>65798.17636282639</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>65892.72916282639</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>64156.0599628264</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>61701.6033628264</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>44216.2894628264</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>91573.11701636411</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>96215.52760503329</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>97821.4849470211</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
